--- a/biology/Botanique/Paxillacée/Paxillacée.xlsx
+++ b/biology/Botanique/Paxillacée/Paxillacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paxillac%C3%A9e</t>
+          <t>Paxillacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Paxillaceae (Paxillacées) ou Clade des Paxillinae sont une famille de champignons de l'ordre des boletales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paxillac%C3%A9e</t>
+          <t>Paxillacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Paxillaceae, comme Paxillus involutus, contiennent un certain nombre d'espèces qui ont été impliquées dans des intoxications mortelles.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paxillac%C3%A9e</t>
+          <t>Paxillacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Phylogramme des Bolétales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycetidae
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paxillac%C3%A9e</t>
+          <t>Paxillacée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,9 +614,11 @@
           <t>Taxons subordonnés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[1] (2007), cette famille comprend les genres suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi (2007), cette famille comprend les genres suivants :
 Alpova  C.W. Dodge 1931
 Austrogaster  Singer 1962
 Gyrodon  Opat. 1836
